--- a/中控服务开发计划.xlsx
+++ b/中控服务开发计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/Desktop/WorkSpace/ AI课项目进度跟进/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/Desktop/kayla/mac_pos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,19 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>田刘云</t>
-    <rPh sb="0" eb="1">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梁飞燕</t>
     <rPh sb="0" eb="1">
       <t>liang'fei</t>
@@ -439,8 +426,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ongoing</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t xml:space="preserve"> 刘廷伟</t>
+    <rPh sb="1" eb="2">
+      <t>liu'ting'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1209,13 +1199,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1312,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="21"/>
     </row>
@@ -1329,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="15"/>
     </row>
@@ -1346,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="23"/>
     </row>
@@ -1363,7 +1353,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -1375,16 +1365,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="23"/>
     </row>
@@ -1392,16 +1382,16 @@
       <c r="A11" s="26"/>
       <c r="B11" s="27"/>
       <c r="C11" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="23"/>
     </row>
@@ -1409,16 +1399,16 @@
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="23"/>
     </row>
@@ -1426,16 +1416,16 @@
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -1447,16 +1437,16 @@
         <v>24</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -1464,16 +1454,16 @@
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="23"/>
     </row>
@@ -1481,33 +1471,33 @@
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>53</v>
+      <c r="F17" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="G17" s="23"/>
     </row>
@@ -1519,16 +1509,16 @@
         <v>26</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="21"/>
     </row>
@@ -1536,16 +1526,16 @@
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="15"/>
     </row>
@@ -1553,16 +1543,16 @@
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="23"/>
     </row>
@@ -1570,19 +1560,24 @@
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="F21" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="23"/>
       <c r="I21" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/中控服务开发计划.xlsx
+++ b/中控服务开发计划.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1199,13 +1199,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1487,9 +1487,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
         <v>53</v>
       </c>
@@ -1573,11 +1571,6 @@
       </c>
       <c r="G21" s="23"/>
       <c r="I21" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
